--- a/Full_Stack_MiniProject_A_section_list.xlsx
+++ b/Full_Stack_MiniProject_A_section_list.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="114">
   <si>
     <t>Group No.</t>
   </si>
@@ -112,6 +112,9 @@
     <t xml:space="preserve"> 1DS22IS059:HARSHVARDHAN BAITULE</t>
   </si>
   <si>
+    <t>1DS22IS046:DWARAMPUDI SOWMITH REDDY</t>
+  </si>
+  <si>
     <t>A05</t>
   </si>
   <si>
@@ -127,6 +130,9 @@
     <t xml:space="preserve"> 1DS22IS058:HARSH SINGH</t>
   </si>
   <si>
+    <t>1DS22IS040:CHARU PRIYA</t>
+  </si>
+  <si>
     <t>A06</t>
   </si>
   <si>
@@ -181,33 +187,24 @@
     <t xml:space="preserve"> 1DS22IS022:ANEESH M KASHYAP</t>
   </si>
   <si>
-    <t>A09</t>
-  </si>
-  <si>
-    <t>1DS22IS046:DWARAMPUDI SOWMITH REDDY</t>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>Web Site Identify Raaga of the song/type of dance</t>
+  </si>
+  <si>
+    <t>1DS22IS034:BHAVANI C P</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1DS22IS036:BOMMANA PRANAVI REDDY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1DS22IS041:CHARUTHA KRISHNA</t>
   </si>
   <si>
     <t xml:space="preserve"> 1DS22IS021:ANANYA PRAMOD</t>
   </si>
   <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>Web Site Identify Raaga of the song/type of dance</t>
-  </si>
-  <si>
-    <t>1DS22IS034:BHAVANI C P</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1DS22IS036:BOMMANA PRANAVI REDDY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1DS22IS041:CHARUTHA KRISHNA</t>
-  </si>
-  <si>
-    <t>1DS22IS040:CHARU PRIYA</t>
-  </si>
-  <si>
     <t>A11</t>
   </si>
   <si>
@@ -349,31 +346,31 @@
     <t>1DS22IS025:ANUSHA R</t>
   </si>
   <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Visulatization for a sem  marks with provided data (Show all type graps bar,line histogram ...} based on Roles</t>
+  </si>
+  <si>
+    <t>1DS22IS005:ADITYA ANAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1DS22IS003:ADITHI S PAWAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1DS22IS055:HANSA SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1DS22IS056:HARSH GUPTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1DS22IS073:LOCHAN T N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1DS22IS181:VEDANT RAJENDRA BALPANDE</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 1DS22IS070:LAISIRI N M</t>
-  </si>
-  <si>
-    <t>A19</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Visulatization for a sem  marks with provided data (Show all type graps bar,line histogram ...} based on Roles</t>
-  </si>
-  <si>
-    <t>1DS22IS005:ADITYA ANAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1DS22IS003:ADITHI S PAWAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1DS22IS055:HANSA SINGH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1DS22IS056:HARSH GUPTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1DS22IS073:LOCHAN T N</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1DS22IS181:VEDANT RAJENDRA BALPANDE</t>
   </si>
 </sst>
 </file>
@@ -1392,10 +1389,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.1428571428571" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1499,301 +1496,289 @@
       <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" ht="42.75" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" ht="30" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" ht="30" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" ht="30" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" ht="30" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" ht="45" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" ht="45" spans="1:6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" ht="30" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" ht="30" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" ht="38.25" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" ht="38.25" spans="1:6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" ht="30" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" ht="30" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" ht="30" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" ht="30" spans="1:6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" ht="42.75" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" ht="42.75" spans="1:6">
-      <c r="A20" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>112</v>
-      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1842,77 +1827,77 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" ht="30" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" ht="30" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -1937,77 +1922,77 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" ht="30" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" ht="30" spans="1:1">
@@ -2032,22 +2017,22 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" ht="30" spans="1:1">
       <c r="A46" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -2055,52 +2040,52 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" ht="30" spans="1:1">
       <c r="A50" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -2110,7 +2095,7 @@
     </row>
     <row r="59" ht="30" spans="1:1">
       <c r="A59" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -2126,17 +2111,17 @@
     </row>
     <row r="63" ht="30" spans="1:1">
       <c r="A63" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -2147,22 +2132,22 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -2170,22 +2155,22 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
